--- a/FeedChecker/Precision_Recall.xlsx
+++ b/FeedChecker/Precision_Recall.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My_Stuff\VIT-20BCE1789\Sem 8\Capstone\Work\frontend\FeedChecker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F70AFF08-FBEC-4732-B7BB-261C59D1F85B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CFCD500-8CD9-4793-889C-5528850D8D2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="14">
   <si>
     <t>File Name</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>Upto Frame Count</t>
+  </si>
+  <si>
+    <t>After merging models</t>
   </si>
 </sst>
 </file>
@@ -394,10 +397,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -567,6 +570,171 @@
         <v>0.80666666666666664</v>
       </c>
     </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="1">
+        <v>9</v>
+      </c>
+      <c r="C16" s="1">
+        <v>11</v>
+      </c>
+      <c r="D16" s="1">
+        <v>2</v>
+      </c>
+      <c r="E16" s="1">
+        <v>3</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="1">
+        <v>28</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0</v>
+      </c>
+      <c r="D17" s="1">
+        <v>2</v>
+      </c>
+      <c r="E17" s="1">
+        <v>109</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="1">
+        <v>56</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0</v>
+      </c>
+      <c r="E18" s="1">
+        <v>56</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="1">
+        <v>80</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0</v>
+      </c>
+      <c r="D19" s="1">
+        <v>28</v>
+      </c>
+      <c r="E19" s="1">
+        <v>33</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" s="1">
+        <v>120</v>
+      </c>
+      <c r="C20" s="1">
+        <v>249</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0</v>
+      </c>
+      <c r="E20" s="1">
+        <v>16</v>
+      </c>
+      <c r="F20" s="1">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B21" s="1">
+        <f>SUM(B16:B20)</f>
+        <v>293</v>
+      </c>
+      <c r="C21" s="1">
+        <f>SUM(C16:C20)</f>
+        <v>260</v>
+      </c>
+      <c r="D21" s="1">
+        <f>SUM(D16:D20)</f>
+        <v>32</v>
+      </c>
+      <c r="E21" s="1">
+        <f>SUM(E16:E20)</f>
+        <v>217</v>
+      </c>
+      <c r="F21" s="1">
+        <f>SUM(F16:F20)</f>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C23" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23">
+        <f>C21/SUM(C21+D21)</f>
+        <v>0.8904109589041096</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24">
+        <f>C21/SUM(C21+F21)</f>
+        <v>0.82802547770700641</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
